--- a/cal-4700-portugues/spal/cores.xlsx
+++ b/cal-4700-portugues/spal/cores.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +108,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +295,186 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFFF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40FF9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80BFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8080FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF80FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF80FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF80BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9F40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FFF40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40FF40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF409FFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4040FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9F40FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF40FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF409F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0080FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,17 +491,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -335,6 +521,47 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,16 +570,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFBFFF80"/>
-      <color rgb="FFBFFFE4"/>
-      <color rgb="FFFFFF80"/>
-      <color rgb="FFFFBF80"/>
-      <color rgb="FFFFBFDF"/>
-      <color rgb="FFFFBFFF"/>
-      <color rgb="FFDFBFFF"/>
-      <color rgb="FFBFBFFF"/>
-      <color rgb="FFBFDFFF"/>
-      <color rgb="FFBFFFFF"/>
+      <color rgb="FFFF0080"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF8000FF"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF0080FF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00FF80"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF80FF00"/>
+      <color rgb="FFFFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -653,7 +880,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +922,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -710,274 +937,274 @@
         <f t="shared" si="0"/>
         <v>cinza claro</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F2" s="8" t="str">
         <f t="shared" si="0"/>
         <v>cinza escuro</v>
       </c>
-      <c r="G2" s="11" t="str">
+      <c r="G2" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cinza muito escuro</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="10" t="str">
         <f t="shared" si="0"/>
         <v>cinza escuríssimo</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <f t="shared" ref="B3:H14" si="1">$A3&amp;" "&amp;B$1</f>
+      <c r="B3" s="5" t="str">
+        <f t="shared" ref="B3:B14" si="1">$A3&amp;" "&amp;B$1</f>
         <v>vermelho claríssimo</v>
       </c>
-      <c r="C3" s="7" t="str">
+      <c r="C3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>vermelho muito claro</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>vermelho claro</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14" t="str">
+      <c r="F3" s="12" t="str">
         <f t="shared" si="0"/>
         <v>vermelho escuro</v>
       </c>
-      <c r="G3" s="15" t="str">
+      <c r="G3" s="13" t="str">
         <f t="shared" si="0"/>
         <v>vermelho muito escuro</v>
       </c>
-      <c r="H3" s="16" t="str">
+      <c r="H3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>vermelho escuríssimo</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="str">
+      <c r="B4" s="15" t="str">
         <f t="shared" si="1"/>
         <v>laranja claríssimo</v>
       </c>
-      <c r="C4" s="28" t="str">
+      <c r="C4" s="26" t="str">
         <f t="shared" si="0"/>
         <v>laranja muito claro</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="39" t="str">
         <f t="shared" si="0"/>
         <v>laranja claro</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>laranja escuro</v>
       </c>
-      <c r="G4" s="13" t="str">
+      <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>laranja muito escuro</v>
       </c>
-      <c r="H4" s="13" t="str">
+      <c r="H4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>laranja escuríssimo</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="16" t="str">
         <f t="shared" si="1"/>
         <v>amarelo claríssimo</v>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>amarelo muito claro</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="40" t="str">
         <f t="shared" si="0"/>
         <v>amarelo claro</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="F5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>amarelo escuro</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>amarelo muito escuro</v>
       </c>
-      <c r="H5" s="13" t="str">
+      <c r="H5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>amarelo escuríssimo</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>folha claríssimo</v>
       </c>
-      <c r="C6" s="30" t="str">
+      <c r="C6" s="28" t="str">
         <f t="shared" si="0"/>
         <v>folha muito claro</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>folha claro</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>folha escuro</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>folha muito escuro</v>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>folha escuríssimo</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="str">
+      <c r="B7" s="18" t="str">
         <f t="shared" si="1"/>
         <v>verde claríssimo</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="29" t="str">
         <f t="shared" si="0"/>
         <v>verde muito claro</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>verde claro</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>verde escuro</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>verde muito escuro</v>
       </c>
-      <c r="H7" s="13" t="str">
+      <c r="H7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>verde escuríssimo</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21" t="str">
+      <c r="B8" s="19" t="str">
         <f t="shared" si="1"/>
         <v>verde azulado claríssimo</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="31" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado muito claro</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado claro</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado escuro</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado muito escuro</v>
       </c>
-      <c r="H8" s="13" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado escuríssimo</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>água claríssimo</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>água muito claro</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>água claro</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>água escuro</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>água muito escuro</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>água escuríssimo</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="str">
+      <c r="B10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>céu claríssimo</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="33" t="str">
         <f t="shared" si="0"/>
         <v>céu muito claro</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="44" t="str">
         <f t="shared" si="0"/>
         <v>céu claro</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>céu escuro</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>céu muito escuro</v>
       </c>
-      <c r="H10" s="13" t="str">
+      <c r="H10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>céu escuríssimo</v>
       </c>
@@ -986,30 +1213,30 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
         <v>azul claríssimo</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="34" t="str">
         <f t="shared" si="0"/>
         <v>azul muito claro</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="45" t="str">
         <f t="shared" si="0"/>
         <v>azul claro</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>azul escuro</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>azul muito escuro</v>
       </c>
-      <c r="H11" s="13" t="str">
+      <c r="H11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>azul escuríssimo</v>
       </c>
@@ -1018,30 +1245,30 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
         <v>roxo claríssimo</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="36" t="str">
         <f t="shared" si="0"/>
         <v>roxo muito claro</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="48" t="str">
         <f t="shared" si="0"/>
         <v>roxo claro</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>roxo escuro</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>roxo muito escuro</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>roxo escuríssimo</v>
       </c>
@@ -1050,30 +1277,30 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
         <v>rosa choque claríssimo</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="37" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque muito claro</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="49" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque claro</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="13" t="str">
+      <c r="F13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque escuro</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque muito escuro</v>
       </c>
-      <c r="H13" s="13" t="str">
+      <c r="H13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque escuríssimo</v>
       </c>
@@ -1082,30 +1309,30 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="27" t="str">
+      <c r="B14" s="25" t="str">
         <f t="shared" si="1"/>
         <v>violeta claríssimo</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="38" t="str">
         <f t="shared" si="0"/>
         <v>violeta muito claro</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="50" t="str">
         <f t="shared" si="0"/>
         <v>violeta claro</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="13" t="str">
+      <c r="F14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>violeta escuro</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>violeta muito escuro</v>
       </c>
-      <c r="H14" s="13" t="str">
+      <c r="H14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>violeta escuríssimo</v>
       </c>

--- a/cal-4700-portugues/spal/cores.xlsx
+++ b/cal-4700-portugues/spal/cores.xlsx
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="72">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +475,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF6000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60BF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BF60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0060BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6000BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF00BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF0060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -562,6 +628,17 @@
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,16 +647,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0080"/>
-      <color rgb="FFFF00FF"/>
-      <color rgb="FF8000FF"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FF0080FF"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FF00FF80"/>
-      <color rgb="FF00FF00"/>
-      <color rgb="FF80FF00"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FFBF0060"/>
+      <color rgb="FFBF00BF"/>
+      <color rgb="FF6000BF"/>
+      <color rgb="FF0000BF"/>
+      <color rgb="FF0060BF"/>
+      <color rgb="FF00605B"/>
+      <color rgb="FF00BFBF"/>
+      <color rgb="FF00BF60"/>
+      <color rgb="FF00BF00"/>
+      <color rgb="FF60BF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -880,7 +957,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1081,7 @@
       <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="70" t="str">
         <f t="shared" si="0"/>
         <v>laranja escuro</v>
       </c>
@@ -1036,7 +1113,7 @@
       <c r="E5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="71" t="str">
         <f t="shared" si="0"/>
         <v>amarelo escuro</v>
       </c>
@@ -1068,7 +1145,7 @@
       <c r="E6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11" t="str">
+      <c r="F6" s="72" t="str">
         <f t="shared" si="0"/>
         <v>folha escuro</v>
       </c>
@@ -1100,7 +1177,7 @@
       <c r="E7" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="73" t="str">
         <f t="shared" si="0"/>
         <v>verde escuro</v>
       </c>
@@ -1132,7 +1209,7 @@
       <c r="E8" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="11" t="str">
+      <c r="F8" s="74" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado escuro</v>
       </c>
@@ -1164,7 +1241,7 @@
       <c r="E9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>água escuro</v>
       </c>
@@ -1196,7 +1273,7 @@
       <c r="E10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="str">
+      <c r="F10" s="76" t="str">
         <f t="shared" si="0"/>
         <v>céu escuro</v>
       </c>
@@ -1228,7 +1305,7 @@
       <c r="E11" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="11" t="str">
+      <c r="F11" s="77" t="str">
         <f t="shared" si="0"/>
         <v>azul escuro</v>
       </c>
@@ -1260,7 +1337,7 @@
       <c r="E12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="11" t="str">
+      <c r="F12" s="78" t="str">
         <f t="shared" si="0"/>
         <v>roxo escuro</v>
       </c>
@@ -1292,7 +1369,7 @@
       <c r="E13" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11" t="str">
+      <c r="F13" s="79" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque escuro</v>
       </c>
@@ -1324,7 +1401,7 @@
       <c r="E14" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="11" t="str">
+      <c r="F14" s="80" t="str">
         <f t="shared" si="0"/>
         <v>violeta escuro</v>
       </c>

--- a/cal-4700-portugues/spal/cores.xlsx
+++ b/cal-4700-portugues/spal/cores.xlsx
@@ -42,9 +42,6 @@
     <t>água</t>
   </si>
   <si>
-    <t>céu</t>
-  </si>
-  <si>
     <t>azul</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>escuríssimo</t>
+  </si>
+  <si>
+    <t>anil</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="72">
+  <fills count="82">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +541,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBF0060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF804000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF408000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -639,6 +699,20 @@
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,15 +722,15 @@
   <colors>
     <mruColors>
       <color rgb="FFBF0060"/>
-      <color rgb="FFBF00BF"/>
-      <color rgb="FF6000BF"/>
-      <color rgb="FF0000BF"/>
-      <color rgb="FF0060BF"/>
-      <color rgb="FF00605B"/>
-      <color rgb="FF00BFBF"/>
-      <color rgb="FF00BF60"/>
-      <color rgb="FF00BF00"/>
-      <color rgb="FF60BF00"/>
+      <color rgb="FF800080"/>
+      <color rgb="FF400080"/>
+      <color rgb="FF000080"/>
+      <color rgb="FF004080"/>
+      <color rgb="FF008080"/>
+      <color rgb="FF008040"/>
+      <color rgb="FF008000"/>
+      <color rgb="FF408000"/>
+      <color rgb="FF808000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -957,7 +1031,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,25 +1051,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,7 +1159,7 @@
         <f t="shared" si="0"/>
         <v>laranja escuro</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="81" t="str">
         <f t="shared" si="0"/>
         <v>laranja muito escuro</v>
       </c>
@@ -1117,7 +1191,7 @@
         <f t="shared" si="0"/>
         <v>amarelo escuro</v>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="G5" s="82" t="str">
         <f t="shared" si="0"/>
         <v>amarelo muito escuro</v>
       </c>
@@ -1128,7 +1202,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="1"/>
@@ -1143,13 +1217,13 @@
         <v>folha claro</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="72" t="str">
         <f t="shared" si="0"/>
         <v>folha escuro</v>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="G6" s="83" t="str">
         <f t="shared" si="0"/>
         <v>folha muito escuro</v>
       </c>
@@ -1181,7 +1255,7 @@
         <f t="shared" si="0"/>
         <v>verde escuro</v>
       </c>
-      <c r="G7" s="11" t="str">
+      <c r="G7" s="84" t="str">
         <f t="shared" si="0"/>
         <v>verde muito escuro</v>
       </c>
@@ -1192,7 +1266,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="19" t="str">
         <f t="shared" si="1"/>
@@ -1207,13 +1281,13 @@
         <v>verde azulado claro</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="74" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado escuro</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="85" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado muito escuro</v>
       </c>
@@ -1245,7 +1319,7 @@
         <f t="shared" si="0"/>
         <v>água escuro</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="90" t="str">
         <f t="shared" si="0"/>
         <v>água muito escuro</v>
       </c>
@@ -1260,67 +1334,67 @@
       </c>
       <c r="B10" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>céu claríssimo</v>
+        <v>azul claríssimo</v>
       </c>
       <c r="C10" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>céu muito claro</v>
+        <v>azul muito claro</v>
       </c>
       <c r="D10" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>céu claro</v>
+        <v>azul claro</v>
       </c>
       <c r="E10" s="56" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="76" t="str">
         <f t="shared" si="0"/>
-        <v>céu escuro</v>
-      </c>
-      <c r="G10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>céu muito escuro</v>
+        <v>azul escuro</v>
+      </c>
+      <c r="G10" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>azul muito escuro</v>
       </c>
       <c r="H10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>céu escuríssimo</v>
+        <v>azul escuríssimo</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="86" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>azul claríssimo</v>
+        <v>anil claríssimo</v>
       </c>
       <c r="C11" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>azul muito claro</v>
+        <v>anil muito claro</v>
       </c>
       <c r="D11" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>azul claro</v>
+        <v>anil claro</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F11" s="77" t="str">
         <f t="shared" si="0"/>
-        <v>azul escuro</v>
-      </c>
-      <c r="G11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>azul muito escuro</v>
+        <v>anil escuro</v>
+      </c>
+      <c r="G11" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>anil muito escuro</v>
       </c>
       <c r="H11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>azul escuríssimo</v>
+        <v>anil escuríssimo</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" s="87" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="23" t="str">
         <f t="shared" si="1"/>
@@ -1335,13 +1409,13 @@
         <v>roxo claro</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="78" t="str">
         <f t="shared" si="0"/>
         <v>roxo escuro</v>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="G12" s="93" t="str">
         <f t="shared" si="0"/>
         <v>roxo muito escuro</v>
       </c>
@@ -1351,8 +1425,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="88" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="24" t="str">
         <f t="shared" si="1"/>
@@ -1367,13 +1441,13 @@
         <v>rosa choque claro</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="79" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque escuro</v>
       </c>
-      <c r="G13" s="11" t="str">
+      <c r="G13" s="94" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque muito escuro</v>
       </c>
@@ -1383,8 +1457,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
+      <c r="A14" s="89" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="25" t="str">
         <f t="shared" si="1"/>
@@ -1399,13 +1473,13 @@
         <v>violeta claro</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="80" t="str">
         <f t="shared" si="0"/>
         <v>violeta escuro</v>
       </c>
-      <c r="G14" s="11" t="str">
+      <c r="G14" s="80" t="str">
         <f t="shared" si="0"/>
         <v>violeta muito escuro</v>
       </c>

--- a/cal-4700-portugues/spal/cores.xlsx
+++ b/cal-4700-portugues/spal/cores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Cor/tonalidade</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>anil</t>
+  </si>
+  <si>
+    <t>marrom</t>
+  </si>
+  <si>
+    <t>azul claro</t>
+  </si>
+  <si>
+    <t>azul escuro</t>
+  </si>
+  <si>
+    <t>verde claro</t>
   </si>
 </sst>
 </file>
@@ -117,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="82">
+  <fills count="92">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,12 +204,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBF0500"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -601,6 +607,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF800080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF402000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF404000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF204000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF200040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF400020"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -632,7 +704,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
@@ -662,28 +734,28 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -703,16 +775,26 @@
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,16 +803,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFBF0060"/>
-      <color rgb="FF800080"/>
-      <color rgb="FF400080"/>
-      <color rgb="FF000080"/>
-      <color rgb="FF004080"/>
-      <color rgb="FF008080"/>
-      <color rgb="FF008040"/>
-      <color rgb="FF008000"/>
-      <color rgb="FF408000"/>
-      <color rgb="FF808000"/>
+      <color rgb="FF400020"/>
+      <color rgb="FF400040"/>
+      <color rgb="FF200040"/>
+      <color rgb="FF000040"/>
+      <color rgb="FF002040"/>
+      <color rgb="FF004040"/>
+      <color rgb="FF004020"/>
+      <color rgb="FF004000"/>
+      <color rgb="FF204000"/>
+      <color rgb="FF404000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1031,7 +1113,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1155,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -1088,7 +1170,7 @@
         <f t="shared" si="0"/>
         <v>cinza claro</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="8" t="str">
@@ -1105,7 +1187,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="str">
@@ -1120,370 +1202,368 @@
         <f t="shared" si="0"/>
         <v>vermelho claro</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="str">
+      <c r="F3" s="11" t="str">
         <f t="shared" si="0"/>
         <v>vermelho escuro</v>
       </c>
-      <c r="G3" s="13" t="str">
+      <c r="G3" s="12" t="str">
         <f t="shared" si="0"/>
         <v>vermelho muito escuro</v>
       </c>
-      <c r="H3" s="14" t="str">
+      <c r="H3" s="13" t="str">
         <f t="shared" si="0"/>
         <v>vermelho escuríssimo</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="str">
+      <c r="B4" s="14" t="str">
         <f t="shared" si="1"/>
         <v>laranja claríssimo</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>laranja muito claro</v>
       </c>
-      <c r="D4" s="39" t="str">
+      <c r="D4" s="38" t="str">
         <f t="shared" si="0"/>
         <v>laranja claro</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="70" t="str">
+      <c r="F4" s="69" t="str">
         <f t="shared" si="0"/>
         <v>laranja escuro</v>
       </c>
-      <c r="G4" s="81" t="str">
+      <c r="G4" s="80" t="str">
         <f t="shared" si="0"/>
         <v>laranja muito escuro</v>
       </c>
-      <c r="H4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>laranja escuríssimo</v>
+      <c r="H4" s="94" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="15" t="str">
         <f t="shared" si="1"/>
         <v>amarelo claríssimo</v>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>amarelo muito claro</v>
       </c>
-      <c r="D5" s="40" t="str">
+      <c r="D5" s="39" t="str">
         <f t="shared" si="0"/>
         <v>amarelo claro</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="71" t="str">
+      <c r="F5" s="70" t="str">
         <f t="shared" si="0"/>
         <v>amarelo escuro</v>
       </c>
-      <c r="G5" s="82" t="str">
+      <c r="G5" s="81" t="str">
         <f t="shared" si="0"/>
         <v>amarelo muito escuro</v>
       </c>
-      <c r="H5" s="11" t="str">
+      <c r="H5" s="95" t="str">
         <f t="shared" si="0"/>
         <v>amarelo escuríssimo</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="16" t="str">
         <f t="shared" si="1"/>
         <v>folha claríssimo</v>
       </c>
-      <c r="C6" s="28" t="str">
+      <c r="C6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>folha muito claro</v>
       </c>
-      <c r="D6" s="41" t="str">
+      <c r="D6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>folha claro</v>
       </c>
-      <c r="E6" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="72" t="str">
+      <c r="E6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="71" t="str">
         <f t="shared" si="0"/>
         <v>folha escuro</v>
       </c>
-      <c r="G6" s="83" t="str">
+      <c r="G6" s="82" t="str">
         <f t="shared" si="0"/>
         <v>folha muito escuro</v>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="96" t="str">
         <f t="shared" si="0"/>
         <v>folha escuríssimo</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="str">
+      <c r="B7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>verde claríssimo</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="28" t="str">
         <f t="shared" si="0"/>
         <v>verde muito claro</v>
       </c>
-      <c r="D7" s="42" t="str">
+      <c r="D7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>verde claro</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="73" t="str">
+      <c r="F7" s="72" t="str">
         <f t="shared" si="0"/>
         <v>verde escuro</v>
       </c>
-      <c r="G7" s="84" t="str">
+      <c r="G7" s="83" t="str">
         <f t="shared" si="0"/>
         <v>verde muito escuro</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="97" t="str">
         <f t="shared" si="0"/>
         <v>verde escuríssimo</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19" t="str">
+      <c r="B8" s="18" t="str">
         <f t="shared" si="1"/>
         <v>verde azulado claríssimo</v>
       </c>
-      <c r="C8" s="31" t="str">
+      <c r="C8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado muito claro</v>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="29" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado claro</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="74" t="str">
+      <c r="F8" s="73" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado escuro</v>
       </c>
-      <c r="G8" s="85" t="str">
+      <c r="G8" s="84" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado muito escuro</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="98" t="str">
         <f t="shared" si="0"/>
         <v>verde azulado escuríssimo</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="str">
+      <c r="B9" s="19" t="str">
         <f t="shared" si="1"/>
         <v>água claríssimo</v>
       </c>
-      <c r="C9" s="32" t="str">
+      <c r="C9" s="31" t="str">
         <f t="shared" si="0"/>
         <v>água muito claro</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>água claro</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="75" t="str">
+      <c r="E9" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="74" t="str">
         <f t="shared" si="0"/>
         <v>água escuro</v>
       </c>
-      <c r="G9" s="90" t="str">
+      <c r="G9" s="89" t="str">
         <f t="shared" si="0"/>
         <v>água muito escuro</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="99" t="str">
         <f t="shared" si="0"/>
         <v>água escuríssimo</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>azul claríssimo</v>
       </c>
-      <c r="C10" s="33" t="str">
+      <c r="C10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>azul muito claro</v>
       </c>
-      <c r="D10" s="44" t="str">
+      <c r="D10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>azul claro</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="76" t="str">
+      <c r="F10" s="75" t="str">
         <f t="shared" si="0"/>
         <v>azul escuro</v>
       </c>
-      <c r="G10" s="91" t="str">
+      <c r="G10" s="90" t="str">
         <f t="shared" si="0"/>
         <v>azul muito escuro</v>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="100" t="str">
         <f t="shared" si="0"/>
         <v>azul escuríssimo</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>anil claríssimo</v>
       </c>
-      <c r="C11" s="34" t="str">
+      <c r="C11" s="33" t="str">
         <f t="shared" si="0"/>
         <v>anil muito claro</v>
       </c>
-      <c r="D11" s="45" t="str">
+      <c r="D11" s="44" t="str">
         <f t="shared" si="0"/>
         <v>anil claro</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="77" t="str">
-        <f t="shared" si="0"/>
-        <v>anil escuro</v>
-      </c>
-      <c r="G11" s="92" t="str">
+      <c r="G11" s="91" t="str">
         <f t="shared" si="0"/>
         <v>anil muito escuro</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="101" t="str">
         <f t="shared" si="0"/>
         <v>anil escuríssimo</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="str">
+      <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>roxo claríssimo</v>
       </c>
-      <c r="C12" s="36" t="str">
+      <c r="C12" s="35" t="str">
         <f t="shared" si="0"/>
         <v>roxo muito claro</v>
       </c>
-      <c r="D12" s="48" t="str">
+      <c r="D12" s="47" t="str">
         <f t="shared" si="0"/>
         <v>roxo claro</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="78" t="str">
+      <c r="F12" s="77" t="str">
         <f t="shared" si="0"/>
         <v>roxo escuro</v>
       </c>
-      <c r="G12" s="93" t="str">
+      <c r="G12" s="92" t="str">
         <f t="shared" si="0"/>
         <v>roxo muito escuro</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="102" t="str">
         <f t="shared" si="0"/>
         <v>roxo escuríssimo</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
         <v>rosa choque claríssimo</v>
       </c>
-      <c r="C13" s="37" t="str">
+      <c r="C13" s="36" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque muito claro</v>
       </c>
-      <c r="D13" s="49" t="str">
+      <c r="D13" s="48" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque claro</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="79" t="str">
+      <c r="F13" s="78" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque escuro</v>
       </c>
-      <c r="G13" s="94" t="str">
+      <c r="G13" s="93" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque muito escuro</v>
       </c>
-      <c r="H13" s="11" t="str">
+      <c r="H13" s="103" t="str">
         <f t="shared" si="0"/>
         <v>rosa choque escuríssimo</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
         <v>violeta claríssimo</v>
       </c>
-      <c r="C14" s="38" t="str">
+      <c r="C14" s="37" t="str">
         <f t="shared" si="0"/>
         <v>violeta muito claro</v>
       </c>
-      <c r="D14" s="50" t="str">
+      <c r="D14" s="49" t="str">
         <f t="shared" si="0"/>
         <v>violeta claro</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="80" t="str">
+      <c r="F14" s="79" t="str">
         <f t="shared" si="0"/>
         <v>violeta escuro</v>
       </c>
-      <c r="G14" s="80" t="str">
+      <c r="G14" s="79" t="str">
         <f t="shared" si="0"/>
         <v>violeta muito escuro</v>
       </c>
-      <c r="H14" s="11" t="str">
+      <c r="H14" s="104" t="str">
         <f t="shared" si="0"/>
         <v>violeta escuríssimo</v>
       </c>

--- a/cal-4700-portugues/spal/cores.xlsx
+++ b/cal-4700-portugues/spal/cores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Cor/tonalidade</t>
   </si>
@@ -66,15 +66,6 @@
     <t>escuro</t>
   </si>
   <si>
-    <t>muito escuro</t>
-  </si>
-  <si>
-    <t>muito claro</t>
-  </si>
-  <si>
-    <t>claríssimo</t>
-  </si>
-  <si>
     <t>escuríssimo</t>
   </si>
   <si>
@@ -90,7 +81,43 @@
     <t>azul escuro</t>
   </si>
   <si>
-    <t>verde claro</t>
+    <t>desbotado</t>
+  </si>
+  <si>
+    <t>esbranquiçado</t>
+  </si>
+  <si>
+    <t>escurecido</t>
+  </si>
+  <si>
+    <t>rosa</t>
+  </si>
+  <si>
+    <t>violeta escuro</t>
+  </si>
+  <si>
+    <t>rosa escuro</t>
+  </si>
+  <si>
+    <t>rosa claro</t>
+  </si>
+  <si>
+    <t>violeta rosado</t>
+  </si>
+  <si>
+    <t>rosa desbotado</t>
+  </si>
+  <si>
+    <t>rosa choque escuro</t>
+  </si>
+  <si>
+    <t>verde abacate</t>
+  </si>
+  <si>
+    <t>verde limão</t>
+  </si>
+  <si>
+    <t>turquesa</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
@@ -1148,10 +1175,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,11 +1187,11 @@
       </c>
       <c r="B2" s="2" t="str">
         <f>$A2&amp;" "&amp;B$1</f>
-        <v>cinza claríssimo</v>
+        <v>cinza esbranquiçado</v>
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:H14" si="0">$A2&amp;" "&amp;C$1</f>
-        <v>cinza muito claro</v>
+        <v>cinza desbotado</v>
       </c>
       <c r="D2" s="4" t="str">
         <f t="shared" si="0"/>
@@ -1179,7 +1206,7 @@
       </c>
       <c r="G2" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>cinza muito escuro</v>
+        <v>cinza escurecido</v>
       </c>
       <c r="H2" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1192,11 +1219,11 @@
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" ref="B3:B14" si="1">$A3&amp;" "&amp;B$1</f>
-        <v>vermelho claríssimo</v>
+        <v>vermelho esbranquiçado</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>vermelho muito claro</v>
+        <v>vermelho desbotado</v>
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1211,7 +1238,7 @@
       </c>
       <c r="G3" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>vermelho muito escuro</v>
+        <v>vermelho escurecido</v>
       </c>
       <c r="H3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1224,11 +1251,11 @@
       </c>
       <c r="B4" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>laranja claríssimo</v>
+        <v>laranja esbranquiçado</v>
       </c>
       <c r="C4" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>laranja muito claro</v>
+        <v>laranja desbotado</v>
       </c>
       <c r="D4" s="38" t="str">
         <f t="shared" si="0"/>
@@ -1243,10 +1270,10 @@
       </c>
       <c r="G4" s="80" t="str">
         <f t="shared" si="0"/>
-        <v>laranja muito escuro</v>
+        <v>laranja escurecido</v>
       </c>
       <c r="H4" s="94" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,11 +1282,11 @@
       </c>
       <c r="B5" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>amarelo claríssimo</v>
+        <v>amarelo esbranquiçado</v>
       </c>
       <c r="C5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>amarelo muito claro</v>
+        <v>amarelo desbotado</v>
       </c>
       <c r="D5" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1274,7 +1301,7 @@
       </c>
       <c r="G5" s="81" t="str">
         <f t="shared" si="0"/>
-        <v>amarelo muito escuro</v>
+        <v>amarelo escurecido</v>
       </c>
       <c r="H5" s="95" t="str">
         <f t="shared" si="0"/>
@@ -1287,18 +1314,17 @@
       </c>
       <c r="B6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>folha claríssimo</v>
+        <v>folha esbranquiçado</v>
       </c>
       <c r="C6" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>folha muito claro</v>
-      </c>
-      <c r="D6" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>folha claro</v>
+        <v>folha desbotado</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F6" s="71" t="str">
         <f t="shared" si="0"/>
@@ -1306,7 +1332,7 @@
       </c>
       <c r="G6" s="82" t="str">
         <f t="shared" si="0"/>
-        <v>folha muito escuro</v>
+        <v>folha escurecido</v>
       </c>
       <c r="H6" s="96" t="str">
         <f t="shared" si="0"/>
@@ -1319,11 +1345,11 @@
       </c>
       <c r="B7" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>verde claríssimo</v>
+        <v>verde esbranquiçado</v>
       </c>
       <c r="C7" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>verde muito claro</v>
+        <v>verde desbotado</v>
       </c>
       <c r="D7" s="41" t="str">
         <f t="shared" si="0"/>
@@ -1338,7 +1364,7 @@
       </c>
       <c r="G7" s="83" t="str">
         <f t="shared" si="0"/>
-        <v>verde muito escuro</v>
+        <v>verde escurecido</v>
       </c>
       <c r="H7" s="97" t="str">
         <f t="shared" si="0"/>
@@ -1347,34 +1373,34 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B8" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>verde azulado claríssimo</v>
+        <v>turquesa esbranquiçado</v>
       </c>
       <c r="C8" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>verde azulado muito claro</v>
+        <v>turquesa desbotado</v>
       </c>
       <c r="D8" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>verde azulado claro</v>
+        <v>turquesa claro</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>verde azulado escuro</v>
+        <v>turquesa escuro</v>
       </c>
       <c r="G8" s="84" t="str">
         <f t="shared" si="0"/>
-        <v>verde azulado muito escuro</v>
+        <v>turquesa escurecido</v>
       </c>
       <c r="H8" s="98" t="str">
         <f t="shared" si="0"/>
-        <v>verde azulado escuríssimo</v>
+        <v>turquesa escuríssimo</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,18 +1409,18 @@
       </c>
       <c r="B9" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>água claríssimo</v>
+        <v>água esbranquiçado</v>
       </c>
       <c r="C9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>água muito claro</v>
+        <v>água desbotado</v>
       </c>
       <c r="D9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>água claro</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="0"/>
@@ -1402,7 +1428,7 @@
       </c>
       <c r="G9" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>água muito escuro</v>
+        <v>água escurecido</v>
       </c>
       <c r="H9" s="99" t="str">
         <f t="shared" si="0"/>
@@ -1415,11 +1441,11 @@
       </c>
       <c r="B10" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>azul claríssimo</v>
+        <v>azul esbranquiçado</v>
       </c>
       <c r="C10" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>azul muito claro</v>
+        <v>azul desbotado</v>
       </c>
       <c r="D10" s="43" t="str">
         <f t="shared" si="0"/>
@@ -1434,7 +1460,7 @@
       </c>
       <c r="G10" s="90" t="str">
         <f t="shared" si="0"/>
-        <v>azul muito escuro</v>
+        <v>azul escurecido</v>
       </c>
       <c r="H10" s="100" t="str">
         <f t="shared" si="0"/>
@@ -1443,29 +1469,29 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="21" t="str">
         <f t="shared" si="1"/>
-        <v>anil claríssimo</v>
+        <v>anil esbranquiçado</v>
       </c>
       <c r="C11" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>anil muito claro</v>
+        <v>anil desbotado</v>
       </c>
       <c r="D11" s="44" t="str">
         <f t="shared" si="0"/>
         <v>anil claro</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>anil muito escuro</v>
+        <v>anil escurecido</v>
       </c>
       <c r="H11" s="101" t="str">
         <f t="shared" si="0"/>
@@ -1478,15 +1504,14 @@
       </c>
       <c r="B12" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>roxo claríssimo</v>
+        <v>roxo esbranquiçado</v>
       </c>
       <c r="C12" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>roxo muito claro</v>
-      </c>
-      <c r="D12" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>roxo claro</v>
+        <v>roxo desbotado</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="66" t="s">
         <v>9</v>
@@ -1497,7 +1522,7 @@
       </c>
       <c r="G12" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>roxo muito escuro</v>
+        <v>roxo escurecido</v>
       </c>
       <c r="H12" s="102" t="str">
         <f t="shared" si="0"/>
@@ -1510,26 +1535,23 @@
       </c>
       <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>rosa choque claríssimo</v>
-      </c>
-      <c r="C13" s="36" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque muito claro</v>
-      </c>
-      <c r="D13" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque claro</v>
+        <v>rosa choque esbranquiçado</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="78" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa choque escuro</v>
+      <c r="F13" s="78" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>rosa choque muito escuro</v>
+        <v>rosa choque escurecido</v>
       </c>
       <c r="H13" s="103" t="str">
         <f t="shared" si="0"/>
@@ -1542,26 +1564,23 @@
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>violeta claríssimo</v>
-      </c>
-      <c r="C14" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>violeta muito claro</v>
-      </c>
-      <c r="D14" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>violeta claro</v>
+        <v>violeta esbranquiçado</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>violeta escuro</v>
+        <v>26</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="79" t="str">
         <f t="shared" si="0"/>
-        <v>violeta muito escuro</v>
+        <v>violeta escurecido</v>
       </c>
       <c r="H14" s="104" t="str">
         <f t="shared" si="0"/>

--- a/cal-4700-portugues/spal/cores.xlsx
+++ b/cal-4700-portugues/spal/cores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Cor/tonalidade</t>
   </si>
@@ -54,9 +54,6 @@
     <t>rosa choque</t>
   </si>
   <si>
-    <t>folha</t>
-  </si>
-  <si>
     <t>verde azulado</t>
   </si>
   <si>
@@ -87,27 +84,12 @@
     <t>esbranquiçado</t>
   </si>
   <si>
-    <t>escurecido</t>
-  </si>
-  <si>
     <t>rosa</t>
   </si>
   <si>
-    <t>violeta escuro</t>
-  </si>
-  <si>
-    <t>rosa escuro</t>
-  </si>
-  <si>
     <t>rosa claro</t>
   </si>
   <si>
-    <t>violeta rosado</t>
-  </si>
-  <si>
-    <t>rosa desbotado</t>
-  </si>
-  <si>
     <t>rosa choque escuro</t>
   </si>
   <si>
@@ -118,6 +100,21 @@
   </si>
   <si>
     <t>turquesa</t>
+  </si>
+  <si>
+    <t>lilás</t>
+  </si>
+  <si>
+    <t>limão</t>
+  </si>
+  <si>
+    <t>muito escuro</t>
+  </si>
+  <si>
+    <t>amarelo queimado</t>
+  </si>
+  <si>
+    <t>marrom claro</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="92">
+  <fills count="93">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF400020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800040"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -822,6 +825,7 @@
     <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,6 +834,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800040"/>
       <color rgb="FF400020"/>
       <color rgb="FF400040"/>
       <color rgb="FF200040"/>
@@ -839,7 +844,6 @@
       <color rgb="FF004020"/>
       <color rgb="FF004000"/>
       <color rgb="FF204000"/>
-      <color rgb="FF404000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1139,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,25 +1164,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,7 +1210,7 @@
       </c>
       <c r="G2" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>cinza escurecido</v>
+        <v>cinza muito escuro</v>
       </c>
       <c r="H2" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1238,7 +1242,7 @@
       </c>
       <c r="G3" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>vermelho escurecido</v>
+        <v>vermelho muito escuro</v>
       </c>
       <c r="H3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1268,12 +1272,11 @@
         <f t="shared" si="0"/>
         <v>laranja escuro</v>
       </c>
-      <c r="G4" s="80" t="str">
-        <f t="shared" si="0"/>
-        <v>laranja escurecido</v>
+      <c r="G4" s="80" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,9 +1302,8 @@
         <f t="shared" si="0"/>
         <v>amarelo escuro</v>
       </c>
-      <c r="G5" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>amarelo escurecido</v>
+      <c r="G5" s="81" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="95" t="str">
         <f t="shared" si="0"/>
@@ -1310,33 +1312,33 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B6" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>folha esbranquiçado</v>
+        <v>limão esbranquiçado</v>
       </c>
       <c r="C6" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>folha desbotado</v>
+        <v>limão desbotado</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>folha escuro</v>
+        <v>limão escuro</v>
       </c>
       <c r="G6" s="82" t="str">
         <f t="shared" si="0"/>
-        <v>folha escurecido</v>
+        <v>limão muito escuro</v>
       </c>
       <c r="H6" s="96" t="str">
         <f t="shared" si="0"/>
-        <v>folha escuríssimo</v>
+        <v>limão escuríssimo</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1364,7 +1366,7 @@
       </c>
       <c r="G7" s="83" t="str">
         <f t="shared" si="0"/>
-        <v>verde escurecido</v>
+        <v>verde muito escuro</v>
       </c>
       <c r="H7" s="97" t="str">
         <f t="shared" si="0"/>
@@ -1373,7 +1375,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" s="18" t="str">
         <f t="shared" si="1"/>
@@ -1388,7 +1390,7 @@
         <v>turquesa claro</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="0"/>
@@ -1396,7 +1398,7 @@
       </c>
       <c r="G8" s="84" t="str">
         <f t="shared" si="0"/>
-        <v>turquesa escurecido</v>
+        <v>turquesa muito escuro</v>
       </c>
       <c r="H8" s="98" t="str">
         <f t="shared" si="0"/>
@@ -1416,11 +1418,11 @@
         <v>água desbotado</v>
       </c>
       <c r="D9" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f>$A9&amp;" "&amp;D$1</f>
         <v>água claro</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="74" t="str">
         <f t="shared" si="0"/>
@@ -1428,7 +1430,7 @@
       </c>
       <c r="G9" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>água escurecido</v>
+        <v>água muito escuro</v>
       </c>
       <c r="H9" s="99" t="str">
         <f t="shared" si="0"/>
@@ -1460,7 +1462,7 @@
       </c>
       <c r="G10" s="90" t="str">
         <f t="shared" si="0"/>
-        <v>azul escurecido</v>
+        <v>azul muito escuro</v>
       </c>
       <c r="H10" s="100" t="str">
         <f t="shared" si="0"/>
@@ -1469,7 +1471,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="21" t="str">
         <f t="shared" si="1"/>
@@ -1484,14 +1486,14 @@
         <v>anil claro</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>anil escurecido</v>
+        <v>anil muito escuro</v>
       </c>
       <c r="H11" s="101" t="str">
         <f t="shared" si="0"/>
@@ -1520,9 +1522,8 @@
         <f t="shared" si="0"/>
         <v>roxo escuro</v>
       </c>
-      <c r="G12" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>roxo escurecido</v>
+      <c r="G12" s="92" t="s">
+        <v>28</v>
       </c>
       <c r="H12" s="102" t="str">
         <f t="shared" si="0"/>
@@ -1531,60 +1532,63 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B13" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>rosa choque esbranquiçado</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="48" t="s">
+        <v>lilás esbranquiçado</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>lilás desbotado</v>
+      </c>
+      <c r="D13" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>lilás claro</v>
+      </c>
+      <c r="E13" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="78" t="s">
-        <v>25</v>
+      <c r="F13" s="78" t="str">
+        <f t="shared" si="0"/>
+        <v>lilás escuro</v>
       </c>
       <c r="G13" s="93" t="str">
         <f t="shared" si="0"/>
-        <v>rosa choque escurecido</v>
+        <v>lilás muito escuro</v>
       </c>
       <c r="H13" s="103" t="str">
         <f t="shared" si="0"/>
-        <v>rosa choque escuríssimo</v>
+        <v>lilás escuríssimo</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B14" s="24" t="str">
         <f t="shared" si="1"/>
-        <v>violeta esbranquiçado</v>
+        <v>rosa esbranquiçado</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>violeta escurecido</v>
+      <c r="G14" s="105" t="str">
+        <f t="shared" si="0"/>
+        <v>rosa muito escuro</v>
       </c>
       <c r="H14" s="104" t="str">
         <f t="shared" si="0"/>
-        <v>violeta escuríssimo</v>
+        <v>rosa escuríssimo</v>
       </c>
     </row>
   </sheetData>
